--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1953748.831503372</v>
+        <v>-1956282.920339141</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>252.3512274833058</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>346.7161276980228</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>336.1262775476982</v>
       </c>
       <c r="E11" t="n">
-        <v>363.3736059992771</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>388.3192816687267</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>392.7563390795281</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>280.0591951265769</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>38.10874673242538</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>99.54951247500523</v>
+        <v>99.5495124750052</v>
       </c>
       <c r="T11" t="n">
         <v>187.0744610687676</v>
       </c>
       <c r="U11" t="n">
-        <v>44.81603282217824</v>
+        <v>232.469718085842</v>
       </c>
       <c r="V11" t="n">
         <v>309.1954943971502</v>
@@ -1433,10 +1433,10 @@
         <v>330.6842046444283</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>351.1743366054843</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.6811745830689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>91.61929095309597</v>
       </c>
       <c r="I12" t="n">
-        <v>15.90126351685838</v>
+        <v>15.90126351685836</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>161.2752161089526</v>
       </c>
       <c r="C13" t="n">
-        <v>148.6900570256431</v>
+        <v>142.0973883355393</v>
       </c>
       <c r="D13" t="n">
-        <v>130.0587089452277</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.8771985735845</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>126.8642839499466</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>106.6230670418892</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>127.7591252598181</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>83.07517839854913</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.2691359117988</v>
+        <v>78.26913591179877</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>174.2717666370154</v>
       </c>
       <c r="T13" t="n">
         <v>201.7422986762791</v>
@@ -1591,7 +1591,7 @@
         <v>267.9662342636063</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>207.1528913160524</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,22 +1607,22 @@
         <v>341.1569118905546</v>
       </c>
       <c r="C14" t="n">
-        <v>211.1500505388479</v>
+        <v>323.6959619980815</v>
       </c>
       <c r="D14" t="n">
-        <v>313.106111847757</v>
+        <v>313.1061118477569</v>
       </c>
       <c r="E14" t="n">
         <v>340.3534402993358</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>365.2991159687854</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805275</v>
+        <v>369.3447958805274</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143945</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.6108320152499</v>
+        <v>67.61083201524985</v>
       </c>
       <c r="T14" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>209.418242185976</v>
+        <v>125.4563794917676</v>
       </c>
       <c r="V14" t="n">
-        <v>286.175328697209</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>307.664038944487</v>
       </c>
       <c r="X14" t="n">
-        <v>328.1541709055431</v>
+        <v>328.154170905543</v>
       </c>
       <c r="Y14" t="n">
         <v>344.6610088831276</v>
@@ -1765,10 +1765,10 @@
         <v>138.2550504090113</v>
       </c>
       <c r="C16" t="n">
-        <v>125.6698913257019</v>
+        <v>125.6698913257018</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452864</v>
+        <v>33.11646411602999</v>
       </c>
       <c r="E16" t="n">
         <v>104.8570328736432</v>
@@ -1777,13 +1777,13 @@
         <v>103.8441182500053</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861023</v>
+        <v>124.4488784861022</v>
       </c>
       <c r="H16" t="n">
         <v>103.1780851413948</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691216</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712139</v>
+        <v>47.35522289712134</v>
       </c>
       <c r="S16" t="n">
-        <v>19.49452579234691</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T16" t="n">
         <v>177.9720195032432</v>
@@ -1822,13 +1822,13 @@
         <v>244.6349084326869</v>
       </c>
       <c r="V16" t="n">
-        <v>210.5607135509021</v>
+        <v>210.560713550902</v>
       </c>
       <c r="W16" t="n">
-        <v>244.9460685636651</v>
+        <v>244.946068563665</v>
       </c>
       <c r="X16" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161111</v>
       </c>
       <c r="Y16" t="n">
         <v>177.0077235791688</v>
@@ -1844,22 +1844,22 @@
         <v>294.181775271962</v>
       </c>
       <c r="C17" t="n">
-        <v>276.720825379489</v>
+        <v>276.7208253794889</v>
       </c>
       <c r="D17" t="n">
-        <v>266.1309752291644</v>
+        <v>266.1309752291643</v>
       </c>
       <c r="E17" t="n">
-        <v>293.3783036807432</v>
+        <v>165.5211499685346</v>
       </c>
       <c r="F17" t="n">
-        <v>318.3239793501929</v>
+        <v>318.3239793501928</v>
       </c>
       <c r="G17" t="n">
-        <v>322.3696592619349</v>
+        <v>322.3696592619348</v>
       </c>
       <c r="H17" t="n">
-        <v>206.0556979958019</v>
+        <v>206.0556979958018</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>20.63569539665723</v>
       </c>
       <c r="T17" t="n">
-        <v>115.3659037481016</v>
+        <v>115.3659037481015</v>
       </c>
       <c r="U17" t="n">
         <v>162.4431055673834</v>
       </c>
       <c r="V17" t="n">
-        <v>131.9787337630643</v>
+        <v>239.2001920786163</v>
       </c>
       <c r="W17" t="n">
         <v>260.6889023258944</v>
       </c>
       <c r="X17" t="n">
-        <v>281.1790342869505</v>
+        <v>281.1790342869504</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.6858722645351</v>
+        <v>297.685872264535</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>91.27991379041868</v>
       </c>
       <c r="C19" t="n">
-        <v>78.6947547071093</v>
+        <v>78.69475470710921</v>
       </c>
       <c r="D19" t="n">
-        <v>60.06340662669382</v>
+        <v>60.06340662669373</v>
       </c>
       <c r="E19" t="n">
-        <v>57.88189625505063</v>
+        <v>57.88189625505055</v>
       </c>
       <c r="F19" t="n">
-        <v>56.86898163141271</v>
+        <v>56.86898163141262</v>
       </c>
       <c r="G19" t="n">
-        <v>77.47374186750969</v>
+        <v>77.4737418675096</v>
       </c>
       <c r="H19" t="n">
-        <v>87.4549745160017</v>
+        <v>56.20294852280216</v>
       </c>
       <c r="I19" t="n">
-        <v>7.800354018319574</v>
+        <v>7.800354018319489</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>101.2169589399234</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>130.9968828846507</v>
+        <v>130.9968828846506</v>
       </c>
       <c r="U19" t="n">
-        <v>197.6597718140943</v>
+        <v>197.6597718140942</v>
       </c>
       <c r="V19" t="n">
-        <v>163.5855769323095</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>197.9709319450725</v>
+        <v>229.222957938273</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>137.1575889975185</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.0325869605763</v>
+        <v>130.0325869605762</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2081,19 @@
         <v>294.181775271962</v>
       </c>
       <c r="C20" t="n">
-        <v>276.720825379489</v>
+        <v>276.7208253794889</v>
       </c>
       <c r="D20" t="n">
-        <v>266.1309752291644</v>
+        <v>266.1309752291643</v>
       </c>
       <c r="E20" t="n">
         <v>293.3783036807432</v>
       </c>
       <c r="F20" t="n">
-        <v>190.4668256379832</v>
+        <v>318.3239793501928</v>
       </c>
       <c r="G20" t="n">
-        <v>322.3696592619349</v>
+        <v>322.3696592619348</v>
       </c>
       <c r="H20" t="n">
         <v>206.0556979958019</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>20.63569539665731</v>
+        <v>20.63569539665723</v>
       </c>
       <c r="T20" t="n">
-        <v>115.3659037481016</v>
+        <v>115.3659037481015</v>
       </c>
       <c r="U20" t="n">
         <v>162.4431055673834</v>
       </c>
       <c r="V20" t="n">
-        <v>239.2001920786164</v>
+        <v>239.2001920786163</v>
       </c>
       <c r="W20" t="n">
-        <v>260.6889023258944</v>
+        <v>132.8317486136857</v>
       </c>
       <c r="X20" t="n">
-        <v>281.1790342869505</v>
+        <v>281.1790342869504</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.6858722645351</v>
+        <v>297.685872264535</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247633</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.27991379041876</v>
+        <v>91.27991379041868</v>
       </c>
       <c r="C22" t="n">
-        <v>78.6947547071093</v>
+        <v>78.69475470710921</v>
       </c>
       <c r="D22" t="n">
-        <v>60.06340662669382</v>
+        <v>60.06340662669373</v>
       </c>
       <c r="E22" t="n">
-        <v>57.88189625505063</v>
+        <v>57.88189625505055</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>56.86898163141262</v>
       </c>
       <c r="G22" t="n">
-        <v>77.47374186750969</v>
+        <v>77.4737418675096</v>
       </c>
       <c r="H22" t="n">
-        <v>56.20294852280225</v>
+        <v>56.20294852280216</v>
       </c>
       <c r="I22" t="n">
-        <v>7.800354018319574</v>
+        <v>7.800354018319489</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3800862785288075</v>
+        <v>0.3800862785287222</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>130.9968828846507</v>
+        <v>130.9968828846506</v>
       </c>
       <c r="U22" t="n">
-        <v>197.6597718140943</v>
+        <v>197.6597718140942</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.83760292551</v>
       </c>
       <c r="W22" t="n">
-        <v>197.9709319450725</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>137.1575889975186</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.2846129537754</v>
+        <v>130.0325869605762</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>294.181775271962</v>
       </c>
       <c r="C23" t="n">
-        <v>276.720825379489</v>
+        <v>276.7208253794889</v>
       </c>
       <c r="D23" t="n">
-        <v>266.1309752291644</v>
+        <v>266.1309752291643</v>
       </c>
       <c r="E23" t="n">
         <v>293.3783036807432</v>
       </c>
       <c r="F23" t="n">
-        <v>318.3239793501929</v>
+        <v>318.3239793501928</v>
       </c>
       <c r="G23" t="n">
-        <v>322.3696592619349</v>
+        <v>322.3696592619348</v>
       </c>
       <c r="H23" t="n">
-        <v>206.0556979958019</v>
+        <v>206.0556979958018</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>20.63569539665731</v>
+        <v>20.63569539665723</v>
       </c>
       <c r="T23" t="n">
-        <v>115.3659037481016</v>
+        <v>115.3659037481015</v>
       </c>
       <c r="U23" t="n">
         <v>162.4431055673834</v>
       </c>
       <c r="V23" t="n">
-        <v>239.2001920786164</v>
+        <v>239.2001920786163</v>
       </c>
       <c r="W23" t="n">
         <v>260.6889023258944</v>
       </c>
       <c r="X23" t="n">
-        <v>281.1790342869505</v>
+        <v>281.1790342869504</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.6858722645351</v>
+        <v>297.685872264535</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247716</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.27991379041876</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>78.6947547071093</v>
+        <v>78.69475470710921</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>91.31543261989455</v>
       </c>
       <c r="E25" t="n">
-        <v>89.13392224824999</v>
+        <v>57.88189625505055</v>
       </c>
       <c r="F25" t="n">
-        <v>56.86898163141271</v>
+        <v>56.86898163141262</v>
       </c>
       <c r="G25" t="n">
-        <v>77.47374186750969</v>
+        <v>77.4737418675096</v>
       </c>
       <c r="H25" t="n">
-        <v>56.20294852280225</v>
+        <v>56.20294852280216</v>
       </c>
       <c r="I25" t="n">
-        <v>7.800354018319574</v>
+        <v>7.800354018319489</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3800862785288075</v>
+        <v>0.3800862785287222</v>
       </c>
       <c r="S25" t="n">
-        <v>101.2169589399234</v>
+        <v>101.2169589399233</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>130.9968828846506</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>197.6597718140942</v>
       </c>
       <c r="V25" t="n">
-        <v>163.5855769323095</v>
+        <v>163.5855769323094</v>
       </c>
       <c r="W25" t="n">
-        <v>197.9709319450725</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>137.1575889975186</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.0325869605763</v>
+        <v>130.0325869605762</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.93685035151351</v>
+        <v>18.9368503515135</v>
       </c>
       <c r="S28" t="n">
         <v>119.7737230129081</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3086,16 +3086,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>133.1067657762835</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,10 +3433,10 @@
         <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
         <v>47.07029468621583</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>92.08430510333696</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
@@ -3487,7 +3487,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>170.2318734253257</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007084</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052283</v>
+        <v>120.5216066929736</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.0843051033369</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>230.7340562419016</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>93.13769105450146</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
         <v>48.74924241846415</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3961,7 +3961,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>170.2318734253262</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239898</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>120.5216066929747</v>
       </c>
       <c r="D46" t="n">
         <v>50.93075279010733</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.20693826439435</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>92.08430510333687</v>
@@ -4195,13 +4195,13 @@
         <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1495.865223122986</v>
+        <v>1068.089390022596</v>
       </c>
       <c r="C11" t="n">
-        <v>1495.865223122986</v>
+        <v>717.8710792165127</v>
       </c>
       <c r="D11" t="n">
-        <v>1495.865223122986</v>
+        <v>378.3495867440902</v>
       </c>
       <c r="E11" t="n">
-        <v>1128.82117665907</v>
+        <v>378.3495867440902</v>
       </c>
       <c r="F11" t="n">
-        <v>736.5794780037901</v>
+        <v>378.3495867440902</v>
       </c>
       <c r="G11" t="n">
-        <v>339.8559031759839</v>
+        <v>378.3495867440902</v>
       </c>
       <c r="H11" t="n">
-        <v>56.96782729055263</v>
+        <v>95.46151085865907</v>
       </c>
       <c r="I11" t="n">
         <v>56.96782729055263</v>
       </c>
       <c r="J11" t="n">
-        <v>212.9614589989001</v>
+        <v>212.961458998901</v>
       </c>
       <c r="K11" t="n">
-        <v>497.4939939982401</v>
+        <v>497.4939939982407</v>
       </c>
       <c r="L11" t="n">
-        <v>887.3835256106745</v>
+        <v>887.3835256106751</v>
       </c>
       <c r="M11" t="n">
-        <v>1352.880190643717</v>
+        <v>1352.880190643718</v>
       </c>
       <c r="N11" t="n">
-        <v>1830.522886757608</v>
+        <v>1830.522886757609</v>
       </c>
       <c r="O11" t="n">
-        <v>2268.212079098261</v>
+        <v>2268.212079098262</v>
       </c>
       <c r="P11" t="n">
-        <v>2607.268677604702</v>
+        <v>2607.268677604703</v>
       </c>
       <c r="Q11" t="n">
-        <v>2813.713316127859</v>
+        <v>2813.71331612786</v>
       </c>
       <c r="R11" t="n">
         <v>2848.391364527631</v>
@@ -5072,19 +5072,19 @@
         <v>2558.872199331901</v>
       </c>
       <c r="U11" t="n">
-        <v>2513.603479309499</v>
+        <v>2324.054302275495</v>
       </c>
       <c r="V11" t="n">
-        <v>2201.284798100256</v>
+        <v>2011.735621066252</v>
       </c>
       <c r="W11" t="n">
-        <v>1867.260348964469</v>
+        <v>1677.711171930466</v>
       </c>
       <c r="X11" t="n">
-        <v>1867.260348964469</v>
+        <v>1322.989619803714</v>
       </c>
       <c r="Y11" t="n">
-        <v>1495.865223122986</v>
+        <v>1322.989619803714</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>165.5744479672742</v>
       </c>
       <c r="H12" t="n">
-        <v>73.02970963081361</v>
+        <v>73.0297096308136</v>
       </c>
       <c r="I12" t="n">
         <v>56.96782729055263</v>
@@ -5130,13 +5130,13 @@
         <v>1052.280255085105</v>
       </c>
       <c r="N12" t="n">
-        <v>1471.885066760589</v>
+        <v>1757.257117805694</v>
       </c>
       <c r="O12" t="n">
-        <v>2157.378594796599</v>
+        <v>2118.893748836112</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.290807403807</v>
+        <v>2389.80596144332</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.469250653781</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>832.5965553674303</v>
+        <v>284.4148643956925</v>
       </c>
       <c r="C13" t="n">
-        <v>682.4045785738513</v>
+        <v>140.8821489052487</v>
       </c>
       <c r="D13" t="n">
-        <v>551.0321452958435</v>
+        <v>140.8821489052487</v>
       </c>
       <c r="E13" t="n">
-        <v>421.8632578477784</v>
+        <v>140.8821489052487</v>
       </c>
       <c r="F13" t="n">
-        <v>293.717516484196</v>
+        <v>140.8821489052487</v>
       </c>
       <c r="G13" t="n">
-        <v>186.0174487651164</v>
+        <v>140.8821489052487</v>
       </c>
       <c r="H13" t="n">
-        <v>56.96782729055263</v>
+        <v>140.8821489052487</v>
       </c>
       <c r="I13" t="n">
         <v>56.96782729055263</v>
       </c>
       <c r="J13" t="n">
-        <v>108.173792009202</v>
+        <v>108.1737920092019</v>
       </c>
       <c r="K13" t="n">
         <v>310.3394358918486</v>
@@ -5206,43 +5206,43 @@
         <v>619.4306814500471</v>
       </c>
       <c r="M13" t="n">
-        <v>954.7145308214152</v>
+        <v>954.7145308214153</v>
       </c>
       <c r="N13" t="n">
         <v>1287.897522062352</v>
       </c>
       <c r="O13" t="n">
-        <v>1581.032069251449</v>
+        <v>1581.03206925145</v>
       </c>
       <c r="P13" t="n">
         <v>1810.990096862916</v>
       </c>
       <c r="Q13" t="n">
-        <v>1892.417967642009</v>
+        <v>1892.41796764201</v>
       </c>
       <c r="R13" t="n">
         <v>1813.358234397768</v>
       </c>
       <c r="S13" t="n">
-        <v>1813.358234397768</v>
+        <v>1637.326146885632</v>
       </c>
       <c r="T13" t="n">
-        <v>1609.578134724759</v>
+        <v>1433.546047212622</v>
       </c>
       <c r="U13" t="n">
-        <v>1339.209801341622</v>
+        <v>1163.177713829485</v>
       </c>
       <c r="V13" t="n">
-        <v>1103.269519270063</v>
+        <v>927.2374317579261</v>
       </c>
       <c r="W13" t="n">
-        <v>832.5965553674303</v>
+        <v>656.5644678552935</v>
       </c>
       <c r="X13" t="n">
-        <v>832.5965553674303</v>
+        <v>447.3191230916042</v>
       </c>
       <c r="Y13" t="n">
-        <v>832.5965553674303</v>
+        <v>447.3191230916042</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1568.517402473459</v>
+        <v>1795.602445719544</v>
       </c>
       <c r="C14" t="n">
-        <v>1355.234523141289</v>
+        <v>1468.636827539664</v>
       </c>
       <c r="D14" t="n">
-        <v>1038.96572329507</v>
+        <v>1152.368027693445</v>
       </c>
       <c r="E14" t="n">
-        <v>695.174369457357</v>
+        <v>808.5766738557319</v>
       </c>
       <c r="F14" t="n">
-        <v>695.174369457357</v>
+        <v>439.5876678266556</v>
       </c>
       <c r="G14" t="n">
-        <v>322.098818062885</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5279,22 +5279,22 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5306,22 +5306,22 @@
         <v>3257.312051896797</v>
       </c>
       <c r="T14" t="n">
-        <v>3093.33120304155</v>
+        <v>3257.312051896797</v>
       </c>
       <c r="U14" t="n">
-        <v>2881.797625075917</v>
+        <v>3130.588436248547</v>
       </c>
       <c r="V14" t="n">
-        <v>2592.731636492878</v>
+        <v>3130.588436248547</v>
       </c>
       <c r="W14" t="n">
-        <v>2592.731636492878</v>
+        <v>2819.816679738964</v>
       </c>
       <c r="X14" t="n">
-        <v>2261.26277699233</v>
+        <v>2488.347820238415</v>
       </c>
       <c r="Y14" t="n">
-        <v>1913.120343777049</v>
+        <v>2140.205387023135</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>797.635389118088</v>
+        <v>667.6378438997363</v>
       </c>
       <c r="C16" t="n">
-        <v>670.6961049507124</v>
+        <v>540.6985597323606</v>
       </c>
       <c r="D16" t="n">
-        <v>562.5763642989079</v>
+        <v>507.2475858777849</v>
       </c>
       <c r="E16" t="n">
-        <v>456.6601694770461</v>
+        <v>401.3313910559231</v>
       </c>
       <c r="F16" t="n">
-        <v>351.767120739667</v>
+        <v>296.438342318544</v>
       </c>
       <c r="G16" t="n">
-        <v>226.0611828749172</v>
+        <v>170.7324044537943</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8408948533063</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5437,10 +5437,10 @@
         <v>152.7959093543157</v>
       </c>
       <c r="K16" t="n">
-        <v>397.9442527783885</v>
+        <v>397.9442527783887</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020814</v>
+        <v>755.6652117020815</v>
       </c>
       <c r="M16" t="n">
         <v>1140.983417776827</v>
@@ -5452,34 +5452,34 @@
         <v>1864.043714353498</v>
       </c>
       <c r="P16" t="n">
-        <v>2137.812375262354</v>
+        <v>2137.812375262355</v>
       </c>
       <c r="Q16" t="n">
         <v>2256.583831890066</v>
       </c>
       <c r="R16" t="n">
-        <v>2208.750273408124</v>
+        <v>2208.750273408125</v>
       </c>
       <c r="S16" t="n">
-        <v>2189.058833213835</v>
+        <v>2059.061287995483</v>
       </c>
       <c r="T16" t="n">
-        <v>2009.289116543892</v>
+        <v>1879.29157132554</v>
       </c>
       <c r="U16" t="n">
-        <v>1762.183148430067</v>
+        <v>1632.185603211715</v>
       </c>
       <c r="V16" t="n">
-        <v>1549.495558984711</v>
+        <v>1419.498013766359</v>
       </c>
       <c r="W16" t="n">
-        <v>1302.075287708282</v>
+        <v>1172.07774248993</v>
       </c>
       <c r="X16" t="n">
-        <v>1116.082635570795</v>
+        <v>986.0850903524434</v>
       </c>
       <c r="Y16" t="n">
-        <v>937.2869551877965</v>
+        <v>807.2894099694447</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1766.491349661806</v>
+        <v>1637.342709548464</v>
       </c>
       <c r="C17" t="n">
-        <v>1486.975364429999</v>
+        <v>1357.826724316657</v>
       </c>
       <c r="D17" t="n">
-        <v>1218.156197531853</v>
+        <v>1089.007557418511</v>
       </c>
       <c r="E17" t="n">
-        <v>921.8144766422134</v>
+        <v>921.8144766422132</v>
       </c>
       <c r="F17" t="n">
-        <v>600.2751035612105</v>
+        <v>600.2751035612104</v>
       </c>
       <c r="G17" t="n">
-        <v>274.6491851148116</v>
+        <v>274.6491851148115</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,22 +5513,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296686</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3304.76168484487</v>
       </c>
       <c r="T17" t="n">
-        <v>3209.074605701997</v>
+        <v>3188.230468937697</v>
       </c>
       <c r="U17" t="n">
-        <v>3044.990660684438</v>
+        <v>3024.146523920138</v>
       </c>
       <c r="V17" t="n">
-        <v>2911.678808398515</v>
+        <v>2782.530168285172</v>
       </c>
       <c r="W17" t="n">
-        <v>2648.356684837006</v>
+        <v>2519.208044723663</v>
       </c>
       <c r="X17" t="n">
-        <v>2364.33745828453</v>
+        <v>2235.188818171187</v>
       </c>
       <c r="Y17" t="n">
-        <v>2063.644658017323</v>
+        <v>1934.496017903981</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
         <v>765.151745215813</v>
@@ -5637,7 +5637,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>497.0556615050091</v>
+        <v>465.4879584815747</v>
       </c>
       <c r="C19" t="n">
-        <v>417.5660102857067</v>
+        <v>385.9983072622725</v>
       </c>
       <c r="D19" t="n">
-        <v>356.8959025819756</v>
+        <v>325.3281995585414</v>
       </c>
       <c r="E19" t="n">
-        <v>298.4293407081871</v>
+        <v>266.861637684753</v>
       </c>
       <c r="F19" t="n">
-        <v>240.9859249188814</v>
+        <v>209.4182218954473</v>
       </c>
       <c r="G19" t="n">
-        <v>162.7296200022049</v>
+        <v>131.1619169787709</v>
       </c>
       <c r="H19" t="n">
-        <v>74.39126190523349</v>
+        <v>74.39126190523341</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5698,25 +5698,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.224738381451</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1602.904654659582</v>
+        <v>1513.458122950977</v>
       </c>
       <c r="U19" t="n">
-        <v>1403.24831949383</v>
+        <v>1313.801787785226</v>
       </c>
       <c r="V19" t="n">
-        <v>1238.010362996548</v>
+        <v>1059.117299579339</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.039724668192</v>
+        <v>827.5789582275479</v>
       </c>
       <c r="X19" t="n">
-        <v>810.0501737701743</v>
+        <v>689.0359390381352</v>
       </c>
       <c r="Y19" t="n">
-        <v>678.7041263352488</v>
+        <v>557.6898916032097</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1637.342709548463</v>
+        <v>1766.491349661806</v>
       </c>
       <c r="C20" t="n">
-        <v>1357.826724316656</v>
+        <v>1486.975364429999</v>
       </c>
       <c r="D20" t="n">
-        <v>1089.00755741851</v>
+        <v>1218.156197531853</v>
       </c>
       <c r="E20" t="n">
-        <v>792.6658365288702</v>
+        <v>921.8144766422133</v>
       </c>
       <c r="F20" t="n">
-        <v>600.2751035612104</v>
+        <v>600.2751035612105</v>
       </c>
       <c r="G20" t="n">
         <v>274.6491851148116</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5789,13 +5789,13 @@
         <v>2782.530168285172</v>
       </c>
       <c r="W20" t="n">
-        <v>2519.208044723662</v>
+        <v>2648.356684837005</v>
       </c>
       <c r="X20" t="n">
-        <v>2235.188818171187</v>
+        <v>2364.33745828453</v>
       </c>
       <c r="Y20" t="n">
-        <v>1934.49601790398</v>
+        <v>2063.644658017323</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>554.93449019018</v>
+        <v>465.4879584815747</v>
       </c>
       <c r="C22" t="n">
-        <v>475.4448389708776</v>
+        <v>385.9983072622725</v>
       </c>
       <c r="D22" t="n">
-        <v>414.7747312671465</v>
+        <v>325.3281995585414</v>
       </c>
       <c r="E22" t="n">
-        <v>356.308169393358</v>
+        <v>266.861637684753</v>
       </c>
       <c r="F22" t="n">
-        <v>209.4182218954476</v>
+        <v>209.4182218954473</v>
       </c>
       <c r="G22" t="n">
-        <v>131.1619169787711</v>
+        <v>131.1619169787709</v>
       </c>
       <c r="H22" t="n">
-        <v>74.39126190523346</v>
+        <v>74.39126190523341</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5944,16 +5944,16 @@
         <v>1403.24831949383</v>
       </c>
       <c r="V22" t="n">
-        <v>1148.563831287943</v>
+        <v>1206.442659973113</v>
       </c>
       <c r="W22" t="n">
-        <v>948.5931929595868</v>
+        <v>917.0254899361526</v>
       </c>
       <c r="X22" t="n">
-        <v>810.0501737701741</v>
+        <v>689.0359390381352</v>
       </c>
       <c r="Y22" t="n">
-        <v>647.1364233118151</v>
+        <v>557.6898916032097</v>
       </c>
     </row>
     <row r="23">
@@ -5972,22 +5972,22 @@
         <v>1220.791884064779</v>
       </c>
       <c r="E23" t="n">
-        <v>924.4501631751398</v>
+        <v>924.4501631751392</v>
       </c>
       <c r="F23" t="n">
-        <v>602.9107900941368</v>
+        <v>602.9107900941364</v>
       </c>
       <c r="G23" t="n">
-        <v>277.284871647737</v>
+        <v>277.2848716477369</v>
       </c>
       <c r="H23" t="n">
-        <v>69.14780296510881</v>
+        <v>69.14780296510878</v>
       </c>
       <c r="I23" t="n">
-        <v>69.14780296510881</v>
+        <v>69.14780296510878</v>
       </c>
       <c r="J23" t="n">
-        <v>258.0269339241342</v>
+        <v>258.0269339241341</v>
       </c>
       <c r="K23" t="n">
         <v>591.8463076139806</v>
@@ -6005,34 +6005,34 @@
         <v>2626.163713472433</v>
       </c>
       <c r="P23" t="n">
-        <v>3020.938079829611</v>
+        <v>3085.027464268702</v>
       </c>
       <c r="Q23" t="n">
-        <v>3333.313826024385</v>
+        <v>3333.313826024384</v>
       </c>
       <c r="R23" t="n">
-        <v>3457.39014825544</v>
+        <v>3457.390148255439</v>
       </c>
       <c r="S23" t="n">
-        <v>3436.54601149114</v>
+        <v>3436.546011491139</v>
       </c>
       <c r="T23" t="n">
-        <v>3320.014795583967</v>
+        <v>3320.014795583966</v>
       </c>
       <c r="U23" t="n">
-        <v>3155.930850566408</v>
+        <v>3155.930850566407</v>
       </c>
       <c r="V23" t="n">
         <v>2914.314494931441</v>
       </c>
       <c r="W23" t="n">
-        <v>2650.992371369932</v>
+        <v>2650.992371369931</v>
       </c>
       <c r="X23" t="n">
-        <v>2366.973144817457</v>
+        <v>2366.973144817456</v>
       </c>
       <c r="Y23" t="n">
-        <v>2066.28034455025</v>
+        <v>2066.280344550249</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>944.179541014034</v>
+        <v>944.1795410140337</v>
       </c>
       <c r="C24" t="n">
-        <v>769.7265117329071</v>
+        <v>769.7265117329067</v>
       </c>
       <c r="D24" t="n">
-        <v>620.7921020716558</v>
+        <v>620.7921020716554</v>
       </c>
       <c r="E24" t="n">
-        <v>461.5546470662003</v>
+        <v>461.5546470661999</v>
       </c>
       <c r="F24" t="n">
-        <v>315.0200890930853</v>
+        <v>315.0200890930849</v>
       </c>
       <c r="G24" t="n">
-        <v>178.6569889257034</v>
+        <v>178.656988925703</v>
       </c>
       <c r="H24" t="n">
-        <v>88.15509456357088</v>
+        <v>88.15509456357056</v>
       </c>
       <c r="I24" t="n">
-        <v>69.14780296510881</v>
+        <v>69.14780296510878</v>
       </c>
       <c r="J24" t="n">
         <v>162.8250724557261</v>
       </c>
       <c r="K24" t="n">
-        <v>401.0892714360732</v>
+        <v>401.0892714360731</v>
       </c>
       <c r="L24" t="n">
-        <v>767.7874317487385</v>
+        <v>767.7874317487384</v>
       </c>
       <c r="M24" t="n">
         <v>1215.063756971054</v>
@@ -6105,7 +6105,7 @@
         <v>1782.24403373279</v>
       </c>
       <c r="W24" t="n">
-        <v>1528.006677004589</v>
+        <v>1528.006677004588</v>
       </c>
       <c r="X24" t="n">
         <v>1320.155176799056</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>589.1378797465391</v>
+        <v>499.6913480379352</v>
       </c>
       <c r="C25" t="n">
-        <v>509.6482285272367</v>
+        <v>420.201696818633</v>
       </c>
       <c r="D25" t="n">
-        <v>359.531589114901</v>
+        <v>327.9638860914667</v>
       </c>
       <c r="E25" t="n">
-        <v>269.4973242176787</v>
+        <v>269.4973242176783</v>
       </c>
       <c r="F25" t="n">
-        <v>212.0539084283729</v>
+        <v>212.0539084283727</v>
       </c>
       <c r="G25" t="n">
-        <v>133.7976035116965</v>
+        <v>133.7976035116963</v>
       </c>
       <c r="H25" t="n">
-        <v>77.02694843815888</v>
+        <v>77.02694843815877</v>
       </c>
       <c r="I25" t="n">
-        <v>69.14780296510881</v>
+        <v>69.14780296510878</v>
       </c>
       <c r="J25" t="n">
         <v>114.2704354120443</v>
@@ -6175,22 +6175,22 @@
         <v>1827.306956622981</v>
       </c>
       <c r="T25" t="n">
-        <v>1605.540341192507</v>
+        <v>1694.986872901112</v>
       </c>
       <c r="U25" t="n">
-        <v>1316.437474318151</v>
+        <v>1495.33053773536</v>
       </c>
       <c r="V25" t="n">
-        <v>1151.199517820868</v>
+        <v>1330.092581238078</v>
       </c>
       <c r="W25" t="n">
-        <v>951.2288794925123</v>
+        <v>1040.675411201118</v>
       </c>
       <c r="X25" t="n">
-        <v>812.6858603030996</v>
+        <v>812.6858603031003</v>
       </c>
       <c r="Y25" t="n">
-        <v>681.3398128681741</v>
+        <v>681.3398128681749</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1886.94776046765</v>
+        <v>1886.947760467651</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.687569101515</v>
+        <v>1588.687569101516</v>
       </c>
       <c r="D26" t="n">
-        <v>1301.124196069041</v>
+        <v>1301.124196069042</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0382690450734</v>
+        <v>986.0382690450742</v>
       </c>
       <c r="F26" t="n">
-        <v>645.7546898297425</v>
+        <v>645.7546898297433</v>
       </c>
       <c r="G26" t="n">
         <v>301.3845652490158</v>
       </c>
       <c r="H26" t="n">
-        <v>74.50329043205966</v>
+        <v>74.50329043205964</v>
       </c>
       <c r="I26" t="n">
-        <v>74.50329043205966</v>
+        <v>74.50329043205964</v>
       </c>
       <c r="J26" t="n">
         <v>263.3824213910851</v>
@@ -6239,16 +6239,16 @@
         <v>2128.546730060047</v>
       </c>
       <c r="O26" t="n">
-        <v>2631.519200939384</v>
+        <v>3008.511380389502</v>
       </c>
       <c r="P26" t="n">
-        <v>3207.669252537192</v>
+        <v>3417.861093290498</v>
       </c>
       <c r="Q26" t="n">
         <v>3666.14745504618</v>
       </c>
       <c r="R26" t="n">
-        <v>3725.164521602983</v>
+        <v>3725.164521602982</v>
       </c>
       <c r="S26" t="n">
         <v>3685.576178704354</v>
@@ -6260,13 +6260,13 @@
         <v>3367.472605510966</v>
       </c>
       <c r="V26" t="n">
-        <v>3107.112043741672</v>
+        <v>3107.112043741671</v>
       </c>
       <c r="W26" t="n">
-        <v>2825.045714045834</v>
+        <v>2825.045714045833</v>
       </c>
       <c r="X26" t="n">
-        <v>2522.282281359031</v>
+        <v>2522.28228135903</v>
       </c>
       <c r="Y26" t="n">
         <v>2202.845274957495</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>949.5350284809842</v>
+        <v>949.5350284809849</v>
       </c>
       <c r="C27" t="n">
-        <v>775.0819991998573</v>
+        <v>775.0819991998579</v>
       </c>
       <c r="D27" t="n">
-        <v>626.1475895386061</v>
+        <v>626.1475895386067</v>
       </c>
       <c r="E27" t="n">
-        <v>466.9101345331505</v>
+        <v>466.9101345331512</v>
       </c>
       <c r="F27" t="n">
-        <v>320.3755765600356</v>
+        <v>320.3755765600362</v>
       </c>
       <c r="G27" t="n">
-        <v>184.0124763926541</v>
+        <v>184.0124763926543</v>
       </c>
       <c r="H27" t="n">
-        <v>93.51058203052162</v>
+        <v>93.51058203052179</v>
       </c>
       <c r="I27" t="n">
-        <v>74.50329043205966</v>
+        <v>74.50329043205964</v>
       </c>
       <c r="J27" t="n">
-        <v>168.1805599226773</v>
+        <v>168.180559922677</v>
       </c>
       <c r="K27" t="n">
-        <v>406.4447589030244</v>
+        <v>406.4447589030241</v>
       </c>
       <c r="L27" t="n">
-        <v>773.1429192156897</v>
+        <v>773.1429192156895</v>
       </c>
       <c r="M27" t="n">
         <v>1220.419244438006</v>
@@ -6318,37 +6318,37 @@
         <v>1693.94228799246</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.903567410514</v>
+        <v>2104.903567410515</v>
       </c>
       <c r="P27" t="n">
-        <v>2415.403158886617</v>
+        <v>2415.403158886618</v>
       </c>
       <c r="Q27" t="n">
-        <v>2573.044716533217</v>
+        <v>2573.044716533218</v>
       </c>
       <c r="R27" t="n">
-        <v>2572.900363125732</v>
+        <v>2572.900363125733</v>
       </c>
       <c r="S27" t="n">
-        <v>2443.462476619212</v>
+        <v>2443.462476619213</v>
       </c>
       <c r="T27" t="n">
         <v>2250.819476297068</v>
       </c>
       <c r="U27" t="n">
-        <v>2022.751629431483</v>
+        <v>2022.751629431484</v>
       </c>
       <c r="V27" t="n">
         <v>1787.599521199741</v>
       </c>
       <c r="W27" t="n">
-        <v>1533.362164471539</v>
+        <v>1533.36216447154</v>
       </c>
       <c r="X27" t="n">
-        <v>1325.510664266006</v>
+        <v>1325.510664266007</v>
       </c>
       <c r="Y27" t="n">
-        <v>1117.750365501052</v>
+        <v>1117.750365501053</v>
       </c>
     </row>
     <row r="28">
@@ -6379,7 +6379,7 @@
         <v>101.1266420394377</v>
       </c>
       <c r="I28" t="n">
-        <v>74.50329043205966</v>
+        <v>74.50329043205964</v>
       </c>
       <c r="J28" t="n">
         <v>119.6259228789952</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6455,43 +6455,43 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1776.744200383602</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N29" t="n">
-        <v>2323.523017442385</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O29" t="n">
-        <v>2826.495488321721</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
         <v>449.484033191384</v>
@@ -6610,46 +6610,46 @@
         <v>350.0437186415469</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S31" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,16 +6686,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557145</v>
@@ -6707,28 +6707,28 @@
         <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N32" t="n">
-        <v>2468.655602521438</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O32" t="n">
-        <v>2971.628073400775</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6774,7 +6774,7 @@
         <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960304</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973134</v>
+        <v>423.2675027973154</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982162</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,10 +6920,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6935,19 +6935,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6965,22 +6965,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7032,34 +7032,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>796.945134112466</v>
+        <v>599.6022649647792</v>
       </c>
       <c r="C37" t="n">
-        <v>628.0089511845591</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D37" t="n">
-        <v>477.8923117722234</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>428.6506527636736</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404822</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332018</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.994696236858</v>
+        <v>985.4928044205425</v>
       </c>
       <c r="X37" t="n">
-        <v>1002.043308938549</v>
+        <v>856.1746880963685</v>
       </c>
       <c r="Y37" t="n">
-        <v>879.9221643688624</v>
+        <v>734.0535435266818</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,64 +7157,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7245,19 +7245,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.602264964779</v>
+        <v>552.4050786964417</v>
       </c>
       <c r="C40" t="n">
-        <v>529.3375166107155</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722232</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>428.6506527636735</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058688</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1379.44877978404</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1124.764291578153</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W40" t="n">
-        <v>934.0185561150358</v>
+        <v>886.8213698466988</v>
       </c>
       <c r="X40" t="n">
-        <v>804.7004397908619</v>
+        <v>757.5032535225248</v>
       </c>
       <c r="Y40" t="n">
-        <v>682.5792952211752</v>
+        <v>635.3821089528381</v>
       </c>
     </row>
     <row r="41">
@@ -7394,49 +7394,49 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464969</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668175</v>
@@ -7482,10 +7482,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5641013650709</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C43" t="n">
-        <v>374.627918437164</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D43" t="n">
         <v>280.5494426245363</v>
@@ -7555,16 +7555,16 @@
         <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758175</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.068997126132</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663015</v>
+        <v>877.9803925153276</v>
       </c>
       <c r="X43" t="n">
-        <v>847.3337107649972</v>
+        <v>706.0290052170183</v>
       </c>
       <c r="Y43" t="n">
-        <v>725.2125661953106</v>
+        <v>583.9078606473316</v>
       </c>
     </row>
     <row r="44">
@@ -7631,7 +7631,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307332</v>
@@ -7646,13 +7646,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7661,7 +7661,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
@@ -7679,19 +7679,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.259395817092</v>
+        <v>453.7336441225989</v>
       </c>
       <c r="C46" t="n">
         <v>331.9946474630285</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1884.661277114357</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.646827515026</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T46" t="n">
-        <v>1569.880212084553</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U46" t="n">
-        <v>1280.777345210196</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V46" t="n">
-        <v>1124.764291578153</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W46" t="n">
-        <v>835.3471215411921</v>
+        <v>886.8213698466991</v>
       </c>
       <c r="X46" t="n">
-        <v>706.0290052170183</v>
+        <v>757.5032535225253</v>
       </c>
       <c r="Y46" t="n">
-        <v>583.9078606473316</v>
+        <v>536.7106743789951</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>140.8233873496623</v>
+        <v>140.8233873496622</v>
       </c>
       <c r="K8" t="n">
-        <v>159.8067244085722</v>
+        <v>159.8067244085721</v>
       </c>
       <c r="L8" t="n">
-        <v>160.9798657788273</v>
+        <v>160.9798657788271</v>
       </c>
       <c r="M8" t="n">
-        <v>147.1317874267737</v>
+        <v>147.1317874267734</v>
       </c>
       <c r="N8" t="n">
-        <v>144.8521210650151</v>
+        <v>144.8521210650149</v>
       </c>
       <c r="O8" t="n">
-        <v>150.2497112551417</v>
+        <v>150.2497112551415</v>
       </c>
       <c r="P8" t="n">
-        <v>163.0841482234648</v>
+        <v>163.0841482234646</v>
       </c>
       <c r="Q8" t="n">
-        <v>171.1287435064577</v>
+        <v>171.1287435064575</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>102.8813709878596</v>
+        <v>102.8813709878595</v>
       </c>
       <c r="K9" t="n">
-        <v>96.89638232301311</v>
+        <v>96.896382323013</v>
       </c>
       <c r="L9" t="n">
-        <v>83.49869817830756</v>
+        <v>83.49869817830742</v>
       </c>
       <c r="M9" t="n">
-        <v>77.88665030172739</v>
+        <v>77.88665030172722</v>
       </c>
       <c r="N9" t="n">
-        <v>65.39389139266977</v>
+        <v>65.39389139266959</v>
       </c>
       <c r="O9" t="n">
-        <v>82.26687246504471</v>
+        <v>82.26687246504454</v>
       </c>
       <c r="P9" t="n">
-        <v>85.55476766947604</v>
+        <v>85.55476766947592</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.6145271951621</v>
+        <v>107.614527195162</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,16 +8611,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>104.315361865307</v>
+        <v>104.3153618653069</v>
       </c>
       <c r="L10" t="n">
-        <v>103.2798721986322</v>
+        <v>103.2798721986321</v>
       </c>
       <c r="M10" t="n">
-        <v>105.6029493630156</v>
+        <v>105.6029493630155</v>
       </c>
       <c r="N10" t="n">
-        <v>95.15505240686778</v>
+        <v>95.1550524068677</v>
       </c>
       <c r="O10" t="n">
         <v>108.4093638232284</v>
@@ -8778,16 +8778,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>288.2545970152565</v>
       </c>
       <c r="O12" t="n">
-        <v>327.1281787935275</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>38.87358177827034</v>
       </c>
       <c r="R12" t="n">
         <v>13.14441500855185</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>64.73675195867781</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.73675195867892</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.877698079828406e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>183.2077628693233</v>
+        <v>14.72257226648236</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>190.2350110279887</v>
+        <v>400.2032972882116</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>336.8335818149109</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>274.8351763665446</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.82882753499368</v>
+        <v>14.82882753499367</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364.1770775904959</v>
+        <v>111.82585010719</v>
       </c>
       <c r="C11" t="n">
-        <v>346.7161276980228</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>336.1262775476982</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>363.3736059992771</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>388.3192816687267</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>392.7563390795281</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>38.10874673242542</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>187.6536852636638</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>351.1743366054843</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>367.6811745830689</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>161.2752161089526</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.592668690103864</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>130.0587089452276</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>127.8771985735845</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>126.8642839499465</v>
       </c>
       <c r="G13" t="n">
-        <v>41.02153561658054</v>
+        <v>147.6446026584699</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>127.7591252598181</v>
       </c>
       <c r="I13" t="n">
-        <v>83.07517839854916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>174.2717666370155</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>207.1528913160525</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>200.0278892791101</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>112.5459114592337</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>83.96186269420839</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>286.1753286972089</v>
       </c>
       <c r="W14" t="n">
-        <v>307.6640389444871</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>73.92207912925637</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.77549063691212</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>128.697569766169</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>127.8571537122086</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>20.63569539665731</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>107.2214583155521</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>127.8571537122097</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>127.8571537122087</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1078369.483590665</v>
+        <v>1078369.483590664</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1203215.514978236</v>
+        <v>1203215.514978235</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1312270.794629308</v>
+        <v>1312270.794629307</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1306559.554766517</v>
+        <v>1306559.554766518</v>
       </c>
     </row>
     <row r="14">
@@ -26317,7 +26317,7 @@
         <v>143373.3592754817</v>
       </c>
       <c r="D2" t="n">
-        <v>143379.960841505</v>
+        <v>143379.9608415051</v>
       </c>
       <c r="E2" t="n">
         <v>117419.9363388248</v>
@@ -26326,16 +26326,16 @@
         <v>132199.6386386628</v>
       </c>
       <c r="G2" t="n">
-        <v>141901.2595750384</v>
+        <v>141901.2595750386</v>
       </c>
       <c r="H2" t="n">
-        <v>141901.2595750385</v>
+        <v>141901.2595750386</v>
       </c>
       <c r="I2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="J2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262497</v>
@@ -26347,13 +26347,13 @@
         <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="O2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="P2" t="n">
         <v>143682.3097262495</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143682.3097262495</v>
-      </c>
-      <c r="P2" t="n">
-        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>100958.4565060327</v>
+        <v>100958.456506033</v>
       </c>
       <c r="E3" t="n">
-        <v>930067.3600873761</v>
+        <v>930067.360087376</v>
       </c>
       <c r="F3" t="n">
-        <v>129553.6137693189</v>
+        <v>129553.6137693188</v>
       </c>
       <c r="G3" t="n">
+        <v>37580.10929487411</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8761.054981525605</v>
+      </c>
+      <c r="J3" t="n">
+        <v>17515.38953503608</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21373.21069935961</v>
+      </c>
+      <c r="L3" t="n">
         <v>37580.10929487408</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8761.054981525725</v>
-      </c>
-      <c r="J3" t="n">
-        <v>17515.38953503612</v>
-      </c>
-      <c r="K3" t="n">
-        <v>21373.21069935955</v>
-      </c>
-      <c r="L3" t="n">
-        <v>37580.1092948741</v>
-      </c>
       <c r="M3" t="n">
-        <v>172437.1621020872</v>
+        <v>172437.1621020873</v>
       </c>
       <c r="N3" t="n">
-        <v>29220.67633240254</v>
+        <v>29220.67633240255</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,19 +26421,19 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>423342.2812399318</v>
+        <v>423342.2812399317</v>
       </c>
       <c r="E4" t="n">
-        <v>40901.3437697685</v>
+        <v>40901.34376976849</v>
       </c>
       <c r="F4" t="n">
-        <v>56055.39944609826</v>
+        <v>56055.39944609832</v>
       </c>
       <c r="G4" t="n">
-        <v>87594.84521250911</v>
+        <v>87594.84521250913</v>
       </c>
       <c r="H4" t="n">
-        <v>87594.84521250911</v>
+        <v>87594.84521250916</v>
       </c>
       <c r="I4" t="n">
         <v>93321.66118401592</v>
@@ -26442,16 +26442,16 @@
         <v>93154.78892519724</v>
       </c>
       <c r="K4" t="n">
-        <v>93063.7509922608</v>
+        <v>93063.75099226076</v>
       </c>
       <c r="L4" t="n">
         <v>93063.75099226082</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="O4" t="n">
         <v>93403.78684820636</v>
@@ -26482,16 +26482,16 @@
         <v>77801.6714704734</v>
       </c>
       <c r="G5" t="n">
-        <v>81750.82423086186</v>
+        <v>81750.82423086188</v>
       </c>
       <c r="H5" t="n">
-        <v>81750.82423086185</v>
+        <v>81750.82423086188</v>
       </c>
       <c r="I5" t="n">
         <v>83753.94599588515</v>
       </c>
       <c r="J5" t="n">
-        <v>86264.06787191606</v>
+        <v>86264.06787191605</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26506,7 +26506,7 @@
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-353404.971826628</v>
+        <v>-353409.3854044962</v>
       </c>
       <c r="C6" t="n">
-        <v>-353404.971826628</v>
+        <v>-353409.3854044962</v>
       </c>
       <c r="D6" t="n">
-        <v>-417118.2722492712</v>
+        <v>-417122.5915190533</v>
       </c>
       <c r="E6" t="n">
-        <v>-920039.1545979015</v>
+        <v>-920414.3313605789</v>
       </c>
       <c r="F6" t="n">
-        <v>-131211.0460472277</v>
+        <v>-131375.0842056218</v>
       </c>
       <c r="G6" t="n">
-        <v>-65024.5191632066</v>
+        <v>-65049.96273679524</v>
       </c>
       <c r="H6" t="n">
-        <v>-27444.40986833246</v>
+        <v>-27469.85344192114</v>
       </c>
       <c r="I6" t="n">
-        <v>-42154.35243517722</v>
+        <v>-42154.35243517699</v>
       </c>
       <c r="J6" t="n">
-        <v>-53251.93660589981</v>
+        <v>-53251.93660589965</v>
       </c>
       <c r="K6" t="n">
-        <v>-60132.59364017672</v>
+        <v>-60132.5936401768</v>
       </c>
       <c r="L6" t="n">
-        <v>-76339.49223569123</v>
+        <v>-76339.49223569121</v>
       </c>
       <c r="M6" t="n">
-        <v>-204677.2365302937</v>
+        <v>-204677.2365302938</v>
       </c>
       <c r="N6" t="n">
-        <v>-61460.75076060925</v>
+        <v>-61460.75076060915</v>
       </c>
       <c r="O6" t="n">
-        <v>-32240.07442820666</v>
+        <v>-32240.07442820662</v>
       </c>
       <c r="P6" t="n">
-        <v>-32240.07442820664</v>
+        <v>-32240.0744282067</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="G2" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="H2" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="I2" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="J2" t="n">
         <v>69.99530231853383</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810502</v>
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.8851075601669</v>
+        <v>117.8851075601672</v>
       </c>
       <c r="E3" t="n">
-        <v>992.4215477022942</v>
+        <v>992.4215477022943</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26805,28 +26805,28 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>864.34753706386</v>
+        <v>864.3475370638598</v>
       </c>
       <c r="J4" t="n">
-        <v>931.2911304007457</v>
+        <v>931.2911304007456</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26917,10 +26917,10 @@
         <v>18.55676407298471</v>
       </c>
       <c r="F2" t="n">
-        <v>23.02016569994127</v>
+        <v>23.02016569994128</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951244</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.8851075601669</v>
+        <v>117.8851075601672</v>
       </c>
       <c r="E3" t="n">
-        <v>874.5364401421274</v>
+        <v>874.5364401421272</v>
       </c>
       <c r="F3" t="n">
-        <v>97.35515289100385</v>
+        <v>97.35515289100374</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>32.94608166156763</v>
+        <v>32.94608166156718</v>
       </c>
       <c r="J4" t="n">
-        <v>66.94359333688567</v>
+        <v>66.94359333688578</v>
       </c>
       <c r="K4" t="n">
-        <v>83.04533080786871</v>
+        <v>83.04533080786894</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.162835325586</v>
+        <v>529.1628353255859</v>
       </c>
       <c r="N4" t="n">
-        <v>119.3036142703846</v>
+        <v>119.3036142703849</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>18.55676407298471</v>
       </c>
       <c r="K2" t="n">
-        <v>23.02016569994127</v>
+        <v>23.02016569994128</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>334.6213715316443</v>
       </c>
       <c r="I8" t="n">
-        <v>192.2054750610056</v>
+        <v>192.2054750610055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>120.0998701510941</v>
+        <v>120.099870151094</v>
       </c>
       <c r="S8" t="n">
         <v>198.2208459137738</v>
@@ -27950,7 +27950,7 @@
         <v>109.7865479454824</v>
       </c>
       <c r="I9" t="n">
-        <v>80.66646215002535</v>
+        <v>80.66646215002534</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.41461167507971</v>
+        <v>84.41461167507967</v>
       </c>
       <c r="S9" t="n">
         <v>166.9733274197123</v>
@@ -28029,10 +28029,10 @@
         <v>160.3371457009831</v>
       </c>
       <c r="I10" t="n">
-        <v>149.0576235205529</v>
+        <v>149.0576235205528</v>
       </c>
       <c r="J10" t="n">
-        <v>78.32979517412494</v>
+        <v>78.32979517412491</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.36139201010918</v>
+        <v>68.36139201010914</v>
       </c>
       <c r="R10" t="n">
         <v>167.7350349510615</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="C11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="D11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="E11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="F11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="G11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="H11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="I11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="T11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="U11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="V11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="W11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="C13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="D13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="E13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="F13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="G13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="H13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="I13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="J13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="K13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="L13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="M13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="N13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="O13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="P13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="R13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="S13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="T13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="U13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="V13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="W13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.5567640729847</v>
+        <v>18.55676407298471</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292599</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="C17" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="D17" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="E17" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="F17" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="G17" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="H17" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="T17" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="U17" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="V17" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="W17" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="X17" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="Y17" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="C19" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="D19" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="E19" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="F19" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="G19" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="H19" t="n">
-        <v>57.30004039831908</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="I19" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>88.55206639151854</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="U19" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="V19" t="n">
-        <v>88.55206639151854</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>88.55206639151854</v>
+        <v>57.30004039831803</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="Y19" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="C20" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="D20" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="E20" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="F20" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="G20" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="H20" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="T20" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="U20" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="V20" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="W20" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="X20" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="Y20" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="C22" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="D22" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="E22" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="G22" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="H22" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="I22" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="U22" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.30004039831798</v>
       </c>
       <c r="W22" t="n">
-        <v>88.55206639151854</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>88.55206639151854</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.3000403983194</v>
+        <v>88.55206639151862</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="C23" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="D23" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="E23" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="F23" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="G23" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="H23" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="T23" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="U23" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="V23" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="W23" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="X23" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="Y23" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.55206639151854</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>57.3000403983178</v>
       </c>
       <c r="E25" t="n">
-        <v>57.30004039831918</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="F25" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="G25" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="H25" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="I25" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="S25" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="V25" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
       <c r="W25" t="n">
-        <v>88.55206639151854</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>88.55206639151854</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>88.55206639151854</v>
+        <v>88.55206639151862</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859162</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859369</v>
       </c>
       <c r="L34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="35">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>46.72521440565379</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -30153,10 +30153,10 @@
         <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
         <v>97.68472022810495</v>
@@ -30189,13 +30189,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>97.68472022810495</v>
@@ -30207,7 +30207,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>55.47778196371149</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
         <v>97.68472022810495</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810501</v>
+        <v>46.72521440565419</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>55.47778196371129</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30618,10 +30618,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>55.4777819637109</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
         <v>97.68472022810502</v>
@@ -30666,10 +30666,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -30681,7 +30681,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>55.47778196371092</v>
       </c>
       <c r="Y43" t="n">
         <v>97.68472022810502</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>46.72521440565318</v>
       </c>
       <c r="D46" t="n">
         <v>97.68472022810502</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.72521440565299</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>97.68472022810502</v>
@@ -30915,13 +30915,13 @@
         <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4739099801413739</v>
+        <v>0.4739099801413752</v>
       </c>
       <c r="H8" t="n">
-        <v>4.853430584122847</v>
+        <v>4.85343058412286</v>
       </c>
       <c r="I8" t="n">
-        <v>18.27041450940034</v>
+        <v>18.27041450940039</v>
       </c>
       <c r="J8" t="n">
-        <v>40.22251717702397</v>
+        <v>40.22251717702408</v>
       </c>
       <c r="K8" t="n">
-        <v>60.28312663640835</v>
+        <v>60.2831266364085</v>
       </c>
       <c r="L8" t="n">
-        <v>74.78654919115993</v>
+        <v>74.78654919116013</v>
       </c>
       <c r="M8" t="n">
-        <v>83.21444580049909</v>
+        <v>83.21444580049931</v>
       </c>
       <c r="N8" t="n">
-        <v>84.56094253157578</v>
+        <v>84.560942531576</v>
       </c>
       <c r="O8" t="n">
-        <v>79.84850016654498</v>
+        <v>79.84850016654519</v>
       </c>
       <c r="P8" t="n">
-        <v>68.1488475318048</v>
+        <v>68.14884753180499</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.17694636799183</v>
+        <v>51.17694636799197</v>
       </c>
       <c r="R8" t="n">
-        <v>29.76924779005561</v>
+        <v>29.76924779005569</v>
       </c>
       <c r="S8" t="n">
-        <v>10.79922367247157</v>
+        <v>10.7992236724716</v>
       </c>
       <c r="T8" t="n">
-        <v>2.074540938068866</v>
+        <v>2.074540938068871</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03791279841130991</v>
+        <v>0.03791279841131001</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2535641936199816</v>
+        <v>0.2535641936199822</v>
       </c>
       <c r="H9" t="n">
-        <v>2.448896291014033</v>
+        <v>2.448896291014039</v>
       </c>
       <c r="I9" t="n">
-        <v>8.730170701389717</v>
+        <v>8.73017070138974</v>
       </c>
       <c r="J9" t="n">
-        <v>23.95625567880712</v>
+        <v>23.95625567880719</v>
       </c>
       <c r="K9" t="n">
-        <v>40.94505665134588</v>
+        <v>40.94505665134599</v>
       </c>
       <c r="L9" t="n">
-        <v>55.05568160156661</v>
+        <v>55.05568160156676</v>
       </c>
       <c r="M9" t="n">
-        <v>64.24738362029093</v>
+        <v>64.2473836202911</v>
       </c>
       <c r="N9" t="n">
-        <v>65.94782069066353</v>
+        <v>65.94782069066372</v>
       </c>
       <c r="O9" t="n">
-        <v>60.32937197939973</v>
+        <v>60.32937197939989</v>
       </c>
       <c r="P9" t="n">
-        <v>48.4196397448542</v>
+        <v>48.41963974485433</v>
       </c>
       <c r="Q9" t="n">
-        <v>32.36724689085941</v>
+        <v>32.36724689085949</v>
       </c>
       <c r="R9" t="n">
-        <v>15.74322247756342</v>
+        <v>15.74322247756346</v>
       </c>
       <c r="S9" t="n">
-        <v>4.709843684125532</v>
+        <v>4.709843684125544</v>
       </c>
       <c r="T9" t="n">
-        <v>1.022041640073522</v>
+        <v>1.022041640073524</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01668185484341985</v>
+        <v>0.01668185484341989</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2125797021576779</v>
+        <v>0.2125797021576785</v>
       </c>
       <c r="H10" t="n">
-        <v>1.890026806456447</v>
+        <v>1.890026806456452</v>
       </c>
       <c r="I10" t="n">
-        <v>6.392851406705443</v>
+        <v>6.392851406705461</v>
       </c>
       <c r="J10" t="n">
-        <v>15.02938494254783</v>
+        <v>15.02938494254787</v>
       </c>
       <c r="K10" t="n">
-        <v>24.69789630522839</v>
+        <v>24.69789630522846</v>
       </c>
       <c r="L10" t="n">
-        <v>31.60480408260605</v>
+        <v>31.60480408260613</v>
       </c>
       <c r="M10" t="n">
-        <v>33.32283458458945</v>
+        <v>33.32283458458954</v>
       </c>
       <c r="N10" t="n">
-        <v>32.53049205836541</v>
+        <v>32.5304920583655</v>
       </c>
       <c r="O10" t="n">
-        <v>30.04717462861434</v>
+        <v>30.04717462861442</v>
       </c>
       <c r="P10" t="n">
-        <v>25.71054870459769</v>
+        <v>25.71054870459776</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.8006512415852</v>
+        <v>17.80065124158524</v>
       </c>
       <c r="R10" t="n">
-        <v>9.558356426107952</v>
+        <v>9.558356426107977</v>
       </c>
       <c r="S10" t="n">
-        <v>3.704684445784258</v>
+        <v>3.704684445784268</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9082950910373508</v>
+        <v>0.9082950910373533</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0115952564813279</v>
+        <v>0.01159525648132793</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.989634362622285</v>
+        <v>3.989634362622286</v>
       </c>
       <c r="H11" t="n">
-        <v>40.85884291620549</v>
+        <v>40.8588429162055</v>
       </c>
       <c r="I11" t="n">
         <v>153.8103787649958</v>
@@ -31762,16 +31762,16 @@
         <v>338.6152294846135</v>
       </c>
       <c r="K11" t="n">
-        <v>507.4964520544149</v>
+        <v>507.496452054415</v>
       </c>
       <c r="L11" t="n">
         <v>629.5942246795169</v>
       </c>
       <c r="M11" t="n">
-        <v>700.5448847758008</v>
+        <v>700.5448847758009</v>
       </c>
       <c r="N11" t="n">
-        <v>711.8804334086014</v>
+        <v>711.8804334086016</v>
       </c>
       <c r="O11" t="n">
         <v>672.2085067152761</v>
@@ -31783,10 +31783,10 @@
         <v>430.8356277766276</v>
       </c>
       <c r="R11" t="n">
-        <v>250.6138695310723</v>
+        <v>250.6138695310724</v>
       </c>
       <c r="S11" t="n">
-        <v>90.91379303825542</v>
+        <v>90.91379303825543</v>
       </c>
       <c r="T11" t="n">
         <v>17.46462442237906</v>
@@ -31832,10 +31832,10 @@
         <v>2.134642574303048</v>
       </c>
       <c r="H12" t="n">
-        <v>20.61615328340049</v>
+        <v>20.6161532834005</v>
       </c>
       <c r="I12" t="n">
-        <v>73.4953693345567</v>
+        <v>73.49536933455671</v>
       </c>
       <c r="J12" t="n">
         <v>201.6769109344823</v>
@@ -31844,19 +31844,19 @@
         <v>344.6979634127865</v>
       </c>
       <c r="L12" t="n">
-        <v>463.4889501792649</v>
+        <v>463.488950179265</v>
       </c>
       <c r="M12" t="n">
-        <v>540.8697434977503</v>
+        <v>540.8697434977504</v>
       </c>
       <c r="N12" t="n">
-        <v>555.1849561999844</v>
+        <v>555.1849561999845</v>
       </c>
       <c r="O12" t="n">
         <v>507.8857707377958</v>
       </c>
       <c r="P12" t="n">
-        <v>407.6231070175706</v>
+        <v>407.6231070175707</v>
       </c>
       <c r="Q12" t="n">
         <v>272.4852521162979</v>
@@ -31871,7 +31871,7 @@
         <v>8.604107569230266</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1404370114673058</v>
+        <v>0.1404370114673059</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>15.91128317463679</v>
       </c>
       <c r="I13" t="n">
-        <v>53.81853245572442</v>
+        <v>53.81853245572443</v>
       </c>
       <c r="J13" t="n">
         <v>126.5256127291925</v>
@@ -31926,13 +31926,13 @@
         <v>266.0665900184151</v>
       </c>
       <c r="M13" t="n">
-        <v>280.5299138857484</v>
+        <v>280.5299138857485</v>
       </c>
       <c r="N13" t="n">
         <v>273.8595395487333</v>
       </c>
       <c r="O13" t="n">
-        <v>252.9536102241848</v>
+        <v>252.9536102241849</v>
       </c>
       <c r="P13" t="n">
         <v>216.4455126333003</v>
@@ -31947,10 +31947,10 @@
         <v>31.18806732697209</v>
       </c>
       <c r="T13" t="n">
-        <v>7.646526679017674</v>
+        <v>7.646526679017675</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09761523420022576</v>
+        <v>0.09761523420022578</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33749,7 +33749,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34390,7 +34390,7 @@
         <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806949</v>
@@ -35416,10 +35416,10 @@
         <v>393.8278097095296</v>
       </c>
       <c r="M11" t="n">
-        <v>470.1986515485281</v>
+        <v>470.1986515485282</v>
       </c>
       <c r="N11" t="n">
-        <v>482.4673698120105</v>
+        <v>482.4673698120106</v>
       </c>
       <c r="O11" t="n">
         <v>442.1102952935894</v>
@@ -35431,7 +35431,7 @@
         <v>208.5299379021781</v>
       </c>
       <c r="R11" t="n">
-        <v>35.02833171694022</v>
+        <v>35.02833171694024</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>74.8392842678156</v>
+        <v>74.83928426781563</v>
       </c>
       <c r="K12" t="n">
         <v>206.8565244384275</v>
       </c>
       <c r="L12" t="n">
-        <v>324.9345703993907</v>
+        <v>324.9345703993908</v>
       </c>
       <c r="M12" t="n">
-        <v>398.735709575732</v>
+        <v>398.7357095757321</v>
       </c>
       <c r="N12" t="n">
-        <v>423.8432441166511</v>
+        <v>712.0978411319078</v>
       </c>
       <c r="O12" t="n">
-        <v>692.4177050868789</v>
+        <v>365.2895262933514</v>
       </c>
       <c r="P12" t="n">
-        <v>273.6486996032404</v>
+        <v>273.6486996032405</v>
       </c>
       <c r="Q12" t="n">
-        <v>132.5034780302764</v>
+        <v>171.3770598085467</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.7231966855044</v>
+        <v>51.72319668550443</v>
       </c>
       <c r="K13" t="n">
-        <v>204.2077210935824</v>
+        <v>204.2077210935825</v>
       </c>
       <c r="L13" t="n">
         <v>312.213379351716</v>
       </c>
       <c r="M13" t="n">
-        <v>338.6705549205737</v>
+        <v>338.6705549205738</v>
       </c>
       <c r="N13" t="n">
         <v>336.5484760009466</v>
@@ -35583,10 +35583,10 @@
         <v>296.0955022112092</v>
       </c>
       <c r="P13" t="n">
-        <v>232.2808359711784</v>
+        <v>232.2808359711785</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.25037452433673</v>
+        <v>82.25037452433676</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599215</v>
+        <v>87.15534638599219</v>
       </c>
       <c r="K16" t="n">
         <v>247.6245893172455</v>
@@ -35811,7 +35811,7 @@
         <v>361.334301943124</v>
       </c>
       <c r="M16" t="n">
-        <v>389.2103091664097</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N16" t="n">
         <v>386.433875940466</v>
@@ -35820,7 +35820,7 @@
         <v>343.9300599955657</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5340009180363</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q16" t="n">
         <v>119.9711683108196</v>
@@ -36373,10 +36373,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>463.4987381780495</v>
       </c>
       <c r="Q23" t="n">
-        <v>315.5310567623984</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36607,13 +36607,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>581.9697490886952</v>
+        <v>413.4845584858542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36832,13 +36832,13 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>729.1561268582152</v>
+        <v>939.1244131184382</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36847,10 +36847,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36911,7 +36911,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120763</v>
@@ -37002,7 +37002,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P31" t="n">
         <v>281.9322077637029</v>
@@ -37075,22 +37075,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>889.1354172278221</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>782.8881772547636</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165782</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629132</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O35" t="n">
         <v>508.053000888219</v>
@@ -37397,7 +37397,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687133</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
